--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_searchForDevice.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_searchForDevice.xlsx
@@ -54,28 +54,28 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>APT_NonVoiceService</t>
   </si>
   <si>
+    <t>Juniper MX480,Cisco 12008</t>
+  </si>
+  <si>
+    <t>UK_W1H-6LT_PORTMAN SQUARE_40_3_COMMS ROOM</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>routerId</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>url for the Product</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Juniper MX480,Cisco 12008</t>
-  </si>
-  <si>
-    <t>UK_W1H-6LT_PORTMAN SQUARE_40_3_COMMS ROOM</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>routerId</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -450,42 +450,42 @@
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
